--- a/studentData.xlsx
+++ b/studentData.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,22 +356,88 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>barCodeID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Aung Kyaw Hein</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>K1</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0979798834</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aung Htet</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0979798835</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Zaw Nay Lin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0979798836</t>
         </is>
       </c>
     </row>
